--- a/plan.xlsx
+++ b/plan.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{864C8658-3BAC-4C46-B714-DCDCECFF0FDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47C6D594-A619-42C2-98F6-E94E4AEEF7DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
   <si>
     <t>Project Planner</t>
   </si>
@@ -176,9 +176,6 @@
     <t>Lage login</t>
   </si>
   <si>
-    <t>Skrive react</t>
-  </si>
-  <si>
     <t>Lage dokumentasjon</t>
   </si>
   <si>
@@ -189,13 +186,19 @@
   </si>
   <si>
     <t>Risikoanalyse</t>
+  </si>
+  <si>
+    <t>søndag</t>
+  </si>
+  <si>
+    <t>Lage video</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1" tint="0.24994659260841701"/>
@@ -294,6 +297,20 @@
       <name val="Corbel"/>
       <family val="2"/>
       <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1" tint="0.24994659260841701"/>
+      <name val="Corbel"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="1" tint="0.24994659260841701"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="8">
@@ -482,7 +499,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -587,6 +604,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="19">
@@ -1000,7 +1023,7 @@
   <dimension ref="B1:BO30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="W6" sqref="W6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1034,7 +1057,7 @@
         <v>6</v>
       </c>
       <c r="H2" s="15">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J2" s="16"/>
       <c r="K2" s="30" t="s">
@@ -1107,20 +1130,42 @@
       <c r="K3" s="11"/>
       <c r="L3" s="11"/>
       <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
+      <c r="N3" s="35" t="s">
+        <v>24</v>
+      </c>
       <c r="O3" s="11"/>
       <c r="P3" s="11"/>
       <c r="Q3" s="11"/>
       <c r="R3" s="11"/>
       <c r="S3" s="11"/>
       <c r="T3" s="11"/>
-      <c r="U3" s="11"/>
+      <c r="U3" s="35" t="s">
+        <v>24</v>
+      </c>
       <c r="V3" s="11"/>
       <c r="W3" s="11"/>
       <c r="X3" s="11"/>
       <c r="Y3" s="11"/>
       <c r="Z3" s="11"/>
       <c r="AA3" s="11"/>
+      <c r="AB3" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="AI3" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="AP3" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="AW3" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="BD3" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="BM3" s="35" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="4" spans="2:67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="26"/>
@@ -1323,28 +1368,26 @@
       <c r="E5" s="7">
         <v>2</v>
       </c>
-      <c r="F5" s="7"/>
+      <c r="F5" s="7">
+        <v>4</v>
+      </c>
       <c r="G5" s="8">
-        <v>0.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="6" t="s">
-        <v>20</v>
+      <c r="B6" s="36" t="s">
+        <v>25</v>
       </c>
       <c r="C6" s="7">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="D6" s="7">
         <v>14</v>
       </c>
-      <c r="E6" s="7">
-        <v>4</v>
-      </c>
+      <c r="E6" s="7"/>
       <c r="F6" s="7"/>
-      <c r="G6" s="8">
-        <v>0.3</v>
-      </c>
+      <c r="G6" s="8"/>
     </row>
     <row r="7" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="6" t="s">
@@ -1354,7 +1397,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
@@ -1365,7 +1408,7 @@
         <v>19</v>
       </c>
       <c r="C8" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D8" s="7">
         <v>7</v>
@@ -1379,7 +1422,7 @@
         <v>18</v>
       </c>
       <c r="C9" s="7">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D9" s="7">
         <v>9</v>
@@ -1390,7 +1433,7 @@
     </row>
     <row r="10" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C10" s="7">
         <v>10</v>
@@ -1410,7 +1453,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="7">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="E11" s="7">
         <v>1</v>
@@ -1422,10 +1465,10 @@
     </row>
     <row r="12" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C12" s="7">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="D12" s="7">
         <v>5</v>
@@ -1436,7 +1479,7 @@
     </row>
     <row r="13" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C13" s="7">
         <v>9</v>
@@ -1450,13 +1493,13 @@
     </row>
     <row r="14" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" s="7">
+        <v>36</v>
+      </c>
+      <c r="D14" s="7">
         <v>10</v>
-      </c>
-      <c r="D14" s="7">
-        <v>20</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>

--- a/plan.xlsx
+++ b/plan.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47C6D594-A619-42C2-98F6-E94E4AEEF7DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{023D7B0F-D7DA-44E5-AA7D-936F691CC519}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project Planner" sheetId="1" r:id="rId1"/>
@@ -569,6 +569,12 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="12">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -604,12 +610,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="19">
@@ -1022,20 +1022,20 @@
   </sheetPr>
   <dimension ref="B1:BO30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="W6" sqref="W6"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="67" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="AA16" sqref="AA16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="2.625" customWidth="1"/>
-    <col min="2" max="2" width="15.625" style="2" customWidth="1"/>
-    <col min="3" max="6" width="11.625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="2.58203125" customWidth="1"/>
+    <col min="2" max="2" width="15.58203125" style="2" customWidth="1"/>
+    <col min="3" max="6" width="11.58203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.58203125" style="4" customWidth="1"/>
     <col min="8" max="27" width="2.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:67" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.85">
+    <row r="1" spans="2:67" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="1.25">
       <c r="B1" s="14" t="s">
         <v>0</v>
       </c>
@@ -1045,7 +1045,7 @@
       <c r="F1" s="13"/>
       <c r="G1" s="13"/>
     </row>
-    <row r="2" spans="2:67" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:67" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="22" t="s">
         <v>14</v>
       </c>
@@ -1060,66 +1060,66 @@
         <v>5</v>
       </c>
       <c r="J2" s="16"/>
-      <c r="K2" s="30" t="s">
+      <c r="K2" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="32"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="34"/>
       <c r="P2" s="17"/>
-      <c r="Q2" s="30" t="s">
+      <c r="Q2" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="R2" s="33"/>
-      <c r="S2" s="33"/>
-      <c r="T2" s="32"/>
+      <c r="R2" s="35"/>
+      <c r="S2" s="35"/>
+      <c r="T2" s="34"/>
       <c r="U2" s="18"/>
-      <c r="V2" s="23" t="s">
+      <c r="V2" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="W2" s="24"/>
-      <c r="X2" s="24"/>
-      <c r="Y2" s="34"/>
+      <c r="W2" s="26"/>
+      <c r="X2" s="26"/>
+      <c r="Y2" s="36"/>
       <c r="Z2" s="19"/>
-      <c r="AA2" s="23" t="s">
+      <c r="AA2" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="24"/>
-      <c r="AC2" s="24"/>
-      <c r="AD2" s="24"/>
-      <c r="AE2" s="24"/>
-      <c r="AF2" s="24"/>
-      <c r="AG2" s="34"/>
+      <c r="AB2" s="26"/>
+      <c r="AC2" s="26"/>
+      <c r="AD2" s="26"/>
+      <c r="AE2" s="26"/>
+      <c r="AF2" s="26"/>
+      <c r="AG2" s="36"/>
       <c r="AH2" s="20"/>
-      <c r="AI2" s="23" t="s">
+      <c r="AI2" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="AJ2" s="24"/>
-      <c r="AK2" s="24"/>
-      <c r="AL2" s="24"/>
-      <c r="AM2" s="24"/>
-      <c r="AN2" s="24"/>
-      <c r="AO2" s="24"/>
-      <c r="AP2" s="24"/>
-    </row>
-    <row r="3" spans="2:67" s="12" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="25" t="s">
+      <c r="AJ2" s="26"/>
+      <c r="AK2" s="26"/>
+      <c r="AL2" s="26"/>
+      <c r="AM2" s="26"/>
+      <c r="AN2" s="26"/>
+      <c r="AO2" s="26"/>
+      <c r="AP2" s="26"/>
+    </row>
+    <row r="3" spans="2:67" s="12" customFormat="1" ht="40" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="27" t="s">
+      <c r="D3" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="27" t="s">
+      <c r="E3" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="27" t="s">
+      <c r="F3" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="29" t="s">
+      <c r="G3" s="31" t="s">
         <v>11</v>
       </c>
       <c r="H3" s="21" t="s">
@@ -1130,7 +1130,7 @@
       <c r="K3" s="11"/>
       <c r="L3" s="11"/>
       <c r="M3" s="11"/>
-      <c r="N3" s="35" t="s">
+      <c r="N3" s="23" t="s">
         <v>24</v>
       </c>
       <c r="O3" s="11"/>
@@ -1139,7 +1139,7 @@
       <c r="R3" s="11"/>
       <c r="S3" s="11"/>
       <c r="T3" s="11"/>
-      <c r="U3" s="35" t="s">
+      <c r="U3" s="23" t="s">
         <v>24</v>
       </c>
       <c r="V3" s="11"/>
@@ -1148,32 +1148,32 @@
       <c r="Y3" s="11"/>
       <c r="Z3" s="11"/>
       <c r="AA3" s="11"/>
-      <c r="AB3" s="35" t="s">
+      <c r="AB3" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="AI3" s="35" t="s">
+      <c r="AI3" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="AP3" s="35" t="s">
+      <c r="AP3" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="AW3" s="35" t="s">
+      <c r="AW3" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="BD3" s="35" t="s">
+      <c r="BD3" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="BM3" s="35" t="s">
+      <c r="BM3" s="23" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="2:67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="26"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
+    <row r="4" spans="2:67" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="28"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
       <c r="H4" s="3">
         <v>1</v>
       </c>
@@ -1355,7 +1355,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="6" t="s">
         <v>15</v>
       </c>
@@ -1375,8 +1375,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="36" t="s">
+    <row r="6" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="24" t="s">
         <v>25</v>
       </c>
       <c r="C6" s="7">
@@ -1389,7 +1389,7 @@
       <c r="F6" s="7"/>
       <c r="G6" s="8"/>
     </row>
-    <row r="7" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="6" t="s">
         <v>16</v>
       </c>
@@ -1403,7 +1403,7 @@
       <c r="F7" s="7"/>
       <c r="G7" s="8"/>
     </row>
-    <row r="8" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" s="6" t="s">
         <v>19</v>
       </c>
@@ -1417,7 +1417,7 @@
       <c r="F8" s="7"/>
       <c r="G8" s="8"/>
     </row>
-    <row r="9" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="6" t="s">
         <v>18</v>
       </c>
@@ -1431,7 +1431,7 @@
       <c r="F9" s="7"/>
       <c r="G9" s="8"/>
     </row>
-    <row r="10" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="6" t="s">
         <v>20</v>
       </c>
@@ -1445,7 +1445,7 @@
       <c r="F10" s="7"/>
       <c r="G10" s="8"/>
     </row>
-    <row r="11" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="6" t="s">
         <v>17</v>
       </c>
@@ -1463,7 +1463,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="12" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B12" s="6" t="s">
         <v>21</v>
       </c>
@@ -1477,7 +1477,7 @@
       <c r="F12" s="7"/>
       <c r="G12" s="8"/>
     </row>
-    <row r="13" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B13" s="6" t="s">
         <v>22</v>
       </c>
@@ -1491,7 +1491,7 @@
       <c r="F13" s="7"/>
       <c r="G13" s="8"/>
     </row>
-    <row r="14" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="6" t="s">
         <v>23</v>
       </c>
@@ -1505,7 +1505,7 @@
       <c r="F14" s="7"/>
       <c r="G14" s="8"/>
     </row>
-    <row r="15" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="6"/>
       <c r="C15" s="9"/>
       <c r="D15" s="7"/>
@@ -1513,7 +1513,7 @@
       <c r="F15" s="7"/>
       <c r="G15" s="8"/>
     </row>
-    <row r="16" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B16" s="6"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -1521,7 +1521,7 @@
       <c r="F16" s="7"/>
       <c r="G16" s="8"/>
     </row>
-    <row r="17" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B17" s="6"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -1529,7 +1529,7 @@
       <c r="F17" s="7"/>
       <c r="G17" s="8"/>
     </row>
-    <row r="18" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B18" s="6"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -1537,7 +1537,7 @@
       <c r="F18" s="7"/>
       <c r="G18" s="8"/>
     </row>
-    <row r="19" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="6"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -1545,7 +1545,7 @@
       <c r="F19" s="7"/>
       <c r="G19" s="8"/>
     </row>
-    <row r="20" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="6"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -1553,7 +1553,7 @@
       <c r="F20" s="7"/>
       <c r="G20" s="8"/>
     </row>
-    <row r="21" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="6"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -1561,7 +1561,7 @@
       <c r="F21" s="7"/>
       <c r="G21" s="8"/>
     </row>
-    <row r="22" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="6"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -1569,7 +1569,7 @@
       <c r="F22" s="7"/>
       <c r="G22" s="8"/>
     </row>
-    <row r="23" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="6"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -1577,7 +1577,7 @@
       <c r="F23" s="7"/>
       <c r="G23" s="8"/>
     </row>
-    <row r="24" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="6"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
@@ -1585,7 +1585,7 @@
       <c r="F24" s="7"/>
       <c r="G24" s="8"/>
     </row>
-    <row r="25" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="6"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
@@ -1593,7 +1593,7 @@
       <c r="F25" s="7"/>
       <c r="G25" s="8"/>
     </row>
-    <row r="26" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="6"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -1601,7 +1601,7 @@
       <c r="F26" s="7"/>
       <c r="G26" s="8"/>
     </row>
-    <row r="27" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="6"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -1609,7 +1609,7 @@
       <c r="F27" s="7"/>
       <c r="G27" s="8"/>
     </row>
-    <row r="28" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="6"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -1617,7 +1617,7 @@
       <c r="F28" s="7"/>
       <c r="G28" s="8"/>
     </row>
-    <row r="29" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="6"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -1625,7 +1625,7 @@
       <c r="F29" s="7"/>
       <c r="G29" s="8"/>
     </row>
-    <row r="30" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="6"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
